--- a/output/fit_clients/fit_round_5.xlsx
+++ b/output/fit_clients/fit_round_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6990435747.591089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003425585006075569</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.067227421139089</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6814739004.668641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005086875821399599</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.971269117112727</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9344642959186336</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.971269117112727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4258476368.626176</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003161322341207937</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.954097644146621</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.4472135954999579</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.954097644146621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4927276798.76536</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004712794813997639</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8782695839690932</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6.117684814624049</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.131311596885759</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-6.117684814624049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>4906717794.832191</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002303009617274787</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.998837033619083</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.379756047131105</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.205166523992996</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-4.379756047131105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8514066045.649797</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001044280989010557</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.042089003369532</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7689948348.00864</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002211086210116069</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9956165004267002</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.90551633732443</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.28885108975654</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-5.90551633732443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5947608390.165696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003468392159685134</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.864975415728631</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8891033187803485</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-5.864975415728631</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4444841119.020108</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004755805687997457</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.08530457672840926</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.967831993134412</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.1807607189745872</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.967831993134412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4244526088.870763</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001113357802858359</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7585592909662484</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.48493158521099</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7450473507911133</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.48493158521099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8395436297.240289</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.00136632213361948</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
         <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.386424410946312</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.8815624085804584</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.386424410946312</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5248854158.110155</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003118922791176731</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.262513185384411</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.959885382214012</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.262513185384411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6536220426.874463</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003163097432667796</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.000554689641564</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6662683314.695398</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004930194726388879</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.083988600088894</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6025207937.531622</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004269241004280694</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.065931223172193</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9138082996754396</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-6.065931223172193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6844258038.70082</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002465804911096182</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.213388098438652</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.8230829305396307</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.213388098438652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5883153237.535773</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001018226106866165</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.949114912724452</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9241940080152071</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-5.949114912724452</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4718052032.972828</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002217312698937929</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.003037078533008</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9299137271536053</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-6.003037078533008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,39 +984,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5618712267.017478</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001328889019216563</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.927967677452596</v>
-      </c>
-      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7088557381.831557</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004171929932883026</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9920391757222755</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1430,39 +1040,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5046207418.708589</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004157641348161763</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9449544628654106</v>
-      </c>
-      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8049861960.116964</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001668767776378176</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.932231079615741</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9149680888726215</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-5.932231079615741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8502352483.71516</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003816872611611113</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.090815406390639</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4987942998.897559</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002774816845457114</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.354496689660387</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8153156075709025</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.354496689660387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1614,39 +1152,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4054577784.036812</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001250417916272883</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9660423612760186</v>
-      </c>
-      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5627723949.565264</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003091987952608981</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.04322777931470249</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.020981030266539</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.3422294284644858</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-6.020981030266539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6681330666.895901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004336608119146313</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9449579294653605</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.023732668253071</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.224843478927807</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-6.023732668253071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6028509558.512046</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001065888711991395</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.102155267532008</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9831313771438089</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-6.102155267532008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5865787806.456658</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002836779433756947</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>5.86707470435031</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9079871326501389</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-5.86707470435031</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5480104234.045484</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002496241829010181</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.1479136052147146</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.613096596597181</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-0.5452733171150054</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.613096596597181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1890,39 +1320,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4218178103.839338</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001443081672099187</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.046151743936654</v>
-      </c>
-      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7284950628.076937</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002415034201505541</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9505492687845033</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5123642791.425177</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004166545348319033</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.883473936579788</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5771935639.349498</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002121237553777438</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.9907731738861522</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.990850041845062</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.288172891411496</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-5.990850041845062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6622039438.95281</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003191098401680783</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.993534514607465</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02433691410842</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-5.993534514607465</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2120,39 +1460,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4824325906.575235</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003720795873856706</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.128094437403028</v>
-      </c>
-      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2166,39 +1488,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3860831267.197704</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003159151264496716</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.023607141022724</v>
-      </c>
-      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5677731033.849036</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002546062094026719</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9704235282482301</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4891660368.088084</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003741973182790832</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6.187238678262448</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9970557863119669</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-6.187238678262448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4648207199.46127</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.0009656363509656901</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>6.017916140331266</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9230458110796633</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-6.017916140331266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6826407721.473686</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004337995258532434</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.191942165076042</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.8863612472463904</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.191942165076042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6365232779.352131</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003363988591085083</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>6.116575729924431</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9310534544526481</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-6.116575729924431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6798557390.022148</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001924069650224309</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.414314865633692</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.8571653155793174</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.414314865633692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4229102573.741429</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00123644905574234</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.064242163763817</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10124310061.8854</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004581164983048973</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9527779922866358</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2580,39 +1740,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9050954140.589964</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002789113332418822</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.013193776213475</v>
-      </c>
-      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5600020591.004414</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003517941011482277</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.035965018881771</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5733774043.918335</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005357516357737537</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.671921640991086</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.6449470153898095</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.671921640991086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6909906078.194888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002471924676680123</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.06981512297083</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9927921537865703</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-6.06981512297083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2764,39 +1852,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5111207005.569506</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003526364165528722</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.077118526173505</v>
-      </c>
-      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8033270829.803429</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001847310768686177</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9704235282482301</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2856,39 +1908,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7131675584.46535</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003222904034180732</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.033915630091599</v>
-      </c>
-      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4959078531.805818</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004705933223229345</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5.916949291190012</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8758845616699362</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-5.916949291190012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6398020133.680514</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002747226816020628</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.030833907498783</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5187070064.456755</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002203764713807133</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.022570576563405</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5892379376.981418</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003706212591675149</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9505492687845033</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4876892734.782074</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002167669619666118</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5.848820019571246</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8562930828751016</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-5.848820019571246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5857421063.010242</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004253762606458386</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.256485330598057</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.7861791448262427</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.256485330598057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5924597285.874274</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002900673909635445</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.831688726326155</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5.875003400286175</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.064854802307988</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-5.875003400286175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5178452239.734288</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005144079440458581</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.1265179302103205</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.966020254217134</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-0.379346840812166</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.966020254217134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3270,39 +2160,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4221964702.506974</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002882732766399534</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9931076081005679</v>
-      </c>
-      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7804608495.649982</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004987152406701591</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.043106171989795</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3362,39 +2216,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3864279285.916884</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004495329902290821</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9994942180244104</v>
-      </c>
-      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3408,39 +2244,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6886028219.038743</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005898855712051225</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.116756517109106</v>
-      </c>
-      <c r="N65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4760269415.506855</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002741438593170544</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6.033226605339635</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9172832680553026</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-6.033226605339635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6413959192.526551</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004188121606204505</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.8951537976125241</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.085007654263897</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.142372533610567</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.085007654263897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8339919253.642724</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003058218055953748</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.160915170530408</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6134200896749213</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-4.160915170530408</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4117320294.311511</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008559811633776315</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.367032954332577</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.8584016387051518</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.367032954332577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6059685202.4538</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002708373599964346</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.935557640283824</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6.813621604569401</v>
-      </c>
-      <c r="M70" t="n">
-        <v>1.181986363155114</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-6.813621604569401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3684,39 +2412,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4925662717.15173</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003761225880566143</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9118278779483403</v>
-      </c>
-      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6830240231.951446</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002289361845141089</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.155952815942171</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5070651175.138885</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001101893825923285</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.978308448257897</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9535619733599897</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.978308448257897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6525227611.326529</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00398509226867638</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9909695913943234</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7564593392.817124</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004207533646880381</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6.08003806524576</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8867145658368487</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-6.08003806524576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6072073151.986237</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002634440384768511</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.05019876772909</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6423709648.369978</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004781252021975613</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.071194823003354</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5559635038.77444</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00447234080811907</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>6.033590588416289</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9367312904700614</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-6.033590588416289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6084072311.326598</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.00235309774776916</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5.920083877055564</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.946865601044415</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-5.920083877055564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6145791412.189442</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003040978938006598</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>6.294152097902416</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9959915892810919</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-6.294152097902416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5143041289.564429</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004041042116480317</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.923103832398382</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9557836717778749</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-5.923103832398382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8278013734.932075</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004721472371472101</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.021532960287487</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10399598205.11908</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002470323727086463</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9866796596009439</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6548318138.241837</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005004352509974493</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.079085867586627</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4137013338.54164</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003192538535019183</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.08266335307431687</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5.937528667127778</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.2074524900572866</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-5.937528667127778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6365316228.681321</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001989459758328396</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.2363996007818522</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.557786391074391</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.3167134961682655</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.557786391074391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5085065317.65977</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001464343791001705</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4.279239737920062</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9169417283596388</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-4.279239737920062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8842368113.03105</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005090731407277885</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.22755230289002</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.7302313631854946</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.22755230289002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6795529909.722915</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004360553834301659</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.1085049510671682</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.399684277619464</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.4363109336124375</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.399684277619464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4666452012.665551</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003097044060178474</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.223604751118976</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.8409277269413217</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.223604751118976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>8110257966.955072</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.00422480919463023</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6935674620878407</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.864203410326598</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8986335388617124</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.864203410326598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4650,39 +3000,21 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4418512034.822552</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003603611459627861</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.140249970836722</v>
-      </c>
-      <c r="N92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7259264381.078592</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001227684240128819</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.014208379728452</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9434995925503641</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-6.014208379728452</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5190398976.334707</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001440173941208983</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.100494526026445</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6965710051.074104</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001843613210738683</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>5.930935002465993</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.270443105232266</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-5.930935002465993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6479344233.03888</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003184224666398166</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.063245215382224</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6393767195.466049</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004991481114042931</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.004785383732131</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>9102703324.696609</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003626399991911717</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>5.813621604569401</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8698096285246786</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-5.813621604569401</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2691980488.5901</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00525628442145725</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.030833907498783</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4332163404.002687</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00274132409716639</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7516118090018841</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>5.928736617171399</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.9789649695622664</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-5.928736617171399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5622548180.805473</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001766486831712362</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5752562372018173</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>6.281617603517423</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9114842940812086</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-6.281617603517423</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_5.xlsx
+++ b/output/fit_clients/fit_round_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6990435747.591089</v>
+        <v>2359852346.588336</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003425585006075569</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+        <v>0.1044732509374629</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02856322042786751</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1179926216.808993</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6814739004.668641</v>
+        <v>1966488935.46278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005086875821399599</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+        <v>0.150090061636082</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03452277309097126</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>983244501.9522731</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4258476368.626176</v>
+        <v>4724753817.68011</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003161322341207937</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.1328251570440566</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03548265161745937</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2362376973.832725</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4927276798.76536</v>
+        <v>3991339369.302039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004712794813997639</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09915798974982191</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03872049083087634</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1995669688.247943</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>4906717794.832191</v>
+        <v>2673188452.613118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002303009617274787</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+        <v>0.1148179480248362</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0479997964879742</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1336594182.190315</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8514066045.649797</v>
+        <v>1938756264.148363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001044280989010557</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>0.07303842123708629</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04749332691057163</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>969378198.3880054</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7689948348.00864</v>
+        <v>3793416809.101351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002211086210116069</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
+        <v>0.1634421101959393</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02630919035003292</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1896708542.608848</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5947608390.165696</v>
+        <v>1793492803.476604</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003468392159685134</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
+        <v>0.1238547211714303</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03501572918637647</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>896746456.3669637</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4444841119.020108</v>
+        <v>5088918950.817367</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004755805687997457</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1660936062013097</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05291204709356365</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2544459580.947351</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4244526088.870763</v>
+        <v>3058859762.270667</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001113357802858359</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1279998066373322</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04786122027762164</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1529429827.338923</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8395436297.240289</v>
+        <v>2656664743.772429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00136632213361948</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
+        <v>0.1888190407011009</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03466989628563155</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1328332357.853281</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5248854158.110155</v>
+        <v>4194019855.999774</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003118922791176731</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.07277934302997024</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02987413199581683</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2097009972.395257</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6536220426.874463</v>
+        <v>2935057666.783028</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003163097432667796</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
+        <v>0.1710522148390301</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0386062238851934</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1467528871.940691</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6662683314.695398</v>
+        <v>1590372186.484571</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004930194726388879</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
+        <v>0.1080410429577687</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0402763888101167</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>795186198.6618989</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6025207937.531622</v>
+        <v>2058410985.11478</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004269241004280694</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
+        <v>0.07809683154464543</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03167767903952995</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1029205562.292207</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6844258038.70082</v>
+        <v>4305302102.436307</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002465804911096182</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
+        <v>0.1662861409035447</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04341123342183659</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2152651070.097009</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5883153237.535773</v>
+        <v>3074233385.25726</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001018226106866165</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
+        <v>0.1366299360804333</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02702749293937919</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1537116716.894866</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4718052032.972828</v>
+        <v>932306066.2559627</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002217312698937929</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1375751548648421</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02635940136291868</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>466153045.4378954</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5618712267.017478</v>
+        <v>2609266652.17406</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001328889019216563</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1535141884689918</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02899454801738252</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1304633285.880109</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7088557381.831557</v>
+        <v>2649704542.137786</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004171929932883026</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
+        <v>0.08065258286000944</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04109388686879759</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1324852244.195544</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5046207418.708589</v>
+        <v>3413600877.908926</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004157641348161763</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+        <v>0.08844569999220446</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05578598321151115</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1706800475.151808</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8049861960.116964</v>
+        <v>1080070284.559626</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001668767776378176</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
+        <v>0.1418007405052895</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04528568473353715</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>540035197.3843558</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8502352483.71516</v>
+        <v>3120650307.693816</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003816872611611113</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
+        <v>0.1411152933538115</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03656473968031812</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1560325180.374247</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4987942998.897559</v>
+        <v>1102426036.492376</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002774816845457114</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
+        <v>0.1210952508821866</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01968910187408483</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>551213057.9325275</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4054577784.036812</v>
+        <v>1288076300.878963</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001250417916272883</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08885551246441753</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03296268971649118</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>644038192.482649</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5627723949.565264</v>
+        <v>3107304521.633771</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003091987952608981</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
+        <v>0.1157882153756312</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02700401865896645</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1553652314.570774</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6681330666.895901</v>
+        <v>2404531137.723911</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004336608119146313</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
+        <v>0.1049752768327759</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03716816235235615</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1202265527.456497</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6028509558.512046</v>
+        <v>4781136582.057091</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001065888711991395</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
+        <v>0.1337552889536217</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03750153947643584</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2390568252.24556</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5865787806.456658</v>
+        <v>1962358665.093168</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002836779433756947</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
+        <v>0.1199762141124135</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03472639312693488</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>981179365.0747793</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5480104234.045484</v>
+        <v>1335529314.688898</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002496241829010181</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
+        <v>0.07248767784928002</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04245005989921976</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>667764576.0985098</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4218178103.839338</v>
+        <v>1577794000.197951</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001443081672099187</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1203943186999941</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03650937255898447</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>788897083.7168748</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7284950628.076937</v>
+        <v>2066197668.413606</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002415034201505541</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
+        <v>0.1639559369453228</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04324016280501611</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1033098908.485599</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5123642791.425177</v>
+        <v>1090552288.39284</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004166545348319033</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
+        <v>0.1103711174828997</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02784847728337432</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>545276166.2967322</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5771935639.349498</v>
+        <v>1032998173.435947</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002121237553777438</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
+        <v>0.0881570735181097</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03032979551029468</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>516499097.4245342</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6622039438.95281</v>
+        <v>3218459425.986156</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003191098401680783</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
+        <v>0.1113884305970896</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01799748960388767</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1609229676.347422</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4824325906.575235</v>
+        <v>1955715939.752152</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003720795873856706</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
+        <v>0.1001387117927</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04057827213681681</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>977857990.4997686</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3860831267.197704</v>
+        <v>1502395114.112404</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003159151264496716</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1077380269807497</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03956430334781554</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>751197605.3645893</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5677731033.849036</v>
+        <v>1491564305.082316</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002546062094026719</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1813322529014545</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03145740695814755</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>745782220.9143075</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4891660368.088084</v>
+        <v>1804274581.604621</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003741973182790832</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
+        <v>0.1604342079944308</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04583165117066625</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>902137179.386566</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4648207199.46127</v>
+        <v>2400153971.007449</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0009656363509656901</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
+        <v>0.1634922722887939</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04710262896524556</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1200077019.130761</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6826407721.473686</v>
+        <v>3424619544.795389</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004337995258532434</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
+        <v>0.1243217379799672</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04286700653651827</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1712309761.237965</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6365232779.352131</v>
+        <v>2050254279.855589</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003363988591085083</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
+        <v>0.205012255343533</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01684696354334195</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1025127231.69703</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6798557390.022148</v>
+        <v>1575118107.33115</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001924069650224309</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
+        <v>0.1026364365387405</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03306681701384467</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>787559074.514443</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4229102573.741429</v>
+        <v>1709417710.910954</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00123644905574234</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
+        <v>0.1380657893170213</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0481847154477303</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>854708815.1078138</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10124310061.8854</v>
+        <v>3707605178.413959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004581164983048973</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
+        <v>0.1667182475891794</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05202986390229455</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1853802541.325453</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9050954140.589964</v>
+        <v>5108211343.146323</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002789113332418822</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
+        <v>0.1274636300103267</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05552966488301503</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2554105733.003879</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5600020591.004414</v>
+        <v>3565179335.441876</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003517941011482277</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
+        <v>0.1047465652376728</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03022056679365206</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1782589726.619703</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5733774043.918335</v>
+        <v>1308709535.592775</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005357516357737537</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1220594370262427</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04359431797294819</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>654354828.3843657</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6909906078.194888</v>
+        <v>3081466811.132223</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002471924676680123</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
+        <v>0.1530848678181917</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04128357330319989</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1540733458.939253</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5111207005.569506</v>
+        <v>1422344910.878106</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003526364165528722</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1726500562386707</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04110230881625871</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>711172470.3179463</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8033270829.803429</v>
+        <v>3620867580.489436</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001847310768686177</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
+        <v>0.1186164202644933</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05673173710603027</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1810433866.914531</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7131675584.46535</v>
+        <v>3010867685.987234</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003222904034180732</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
+        <v>0.1285458626401041</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02739524368578924</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1505433874.046755</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4959078531.805818</v>
+        <v>3032047226.607797</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004705933223229345</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
+        <v>0.1140044187765538</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04370358773643743</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1516023600.839406</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6398020133.680514</v>
+        <v>3977640387.981495</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002747226816020628</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
+        <v>0.1693861115120908</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.01972910404298222</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1988820167.265381</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5187070064.456755</v>
+        <v>1639653035.917403</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002203764713807133</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1122991570809771</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04488169493961005</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>819826538.8969246</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5892379376.981418</v>
+        <v>2791348382.705347</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003706212591675149</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
+        <v>0.1210886904055185</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02245069486789619</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1395674177.466111</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4876892734.782074</v>
+        <v>1542050966.545649</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002167669619666118</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
+        <v>0.1406553488885499</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02461359730533591</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>771025509.9523281</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5857421063.010242</v>
+        <v>5422517877.855727</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004253762606458386</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
+        <v>0.08310493695527518</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03767747946033704</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2711258844.109087</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5924597285.874274</v>
+        <v>2712681420.812788</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002900673909635445</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1467032958118726</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02271041323976148</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1356340750.064828</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5178452239.734288</v>
+        <v>2328100166.569547</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005144079440458581</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
+        <v>0.1540821965702358</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02811655112464741</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1164050126.641226</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4221964702.506974</v>
+        <v>1979809568.663576</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002882732766399534</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+        <v>0.1228272821985251</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03283711517361997</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>989904838.8090585</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7804608495.649982</v>
+        <v>4582215878.829566</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004987152406701591</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
+        <v>0.07588943346913835</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04112125664502369</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2291107974.851366</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3864279285.916884</v>
+        <v>3871483517.565486</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004495329902290821</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1216964056217621</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02741569559803932</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1935741784.862091</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6886028219.038743</v>
+        <v>4071167290.730051</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005898855712051225</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
+        <v>0.155408287003714</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02695787803126898</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2035583659.190831</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4760269415.506855</v>
+        <v>4888172470.963022</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002741438593170544</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1325030723824587</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03585205806792201</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2444086256.05144</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6413959192.526551</v>
+        <v>2866227692.775456</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004188121606204505</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
+        <v>0.06627930757082136</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03295166950305894</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1433113875.353053</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8339919253.642724</v>
+        <v>5368262720.481015</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003058218055953748</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
+        <v>0.1499916616507694</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03623396087963932</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2684131438.255927</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4117320294.311511</v>
+        <v>1625552661.973421</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008559811633776315</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
+        <v>0.1320593074544526</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0438085928636064</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>812776286.9908304</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6059685202.4538</v>
+        <v>2678039273.541078</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002708373599964346</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
+        <v>0.07317492359121143</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03480286847101677</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1339019591.927275</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4925662717.15173</v>
+        <v>3739434941.536652</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003761225880566143</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1139558644824703</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02465988273227043</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1869717481.912837</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6830240231.951446</v>
+        <v>1903700713.442566</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002289361845141089</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
+        <v>0.08316198614612318</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03910854853023097</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>951850317.9751682</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5070651175.138885</v>
+        <v>2713318992.850764</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001101893825923285</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
+        <v>0.09497315548251269</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04441711123481434</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1356659518.102059</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6525227611.326529</v>
+        <v>3400081002.40682</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00398509226867638</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
+        <v>0.1345325360987803</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02424952061816924</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1700040530.759462</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7564593392.817124</v>
+        <v>1620570532.542355</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004207533646880381</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
+        <v>0.1359171571148003</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03724959785579455</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>810285265.5256039</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6072073151.986237</v>
+        <v>4312511054.467282</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002634440384768511</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
+        <v>0.08864843239499631</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02126071981624824</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2156255524.45623</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6423709648.369978</v>
+        <v>1854942174.947722</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004781252021975613</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
+        <v>0.1745315385791933</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02698392498339125</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>927471126.9671494</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5559635038.77444</v>
+        <v>3936064212.394616</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00447234080811907</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
+        <v>0.1033697910452027</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04468170007719532</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1968032075.892398</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6084072311.326598</v>
+        <v>1459234349.099471</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00235309774776916</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
+        <v>0.1364455815316915</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.0259185521074078</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>729617200.9498552</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6145791412.189442</v>
+        <v>3916425545.992997</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003040978938006598</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
+        <v>0.08482378900329798</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03846740379057165</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1958212767.718207</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5143041289.564429</v>
+        <v>4705662391.728892</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004041042116480317</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
+        <v>0.1040337296979856</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03187274574430639</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2352831184.756918</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8278013734.932075</v>
+        <v>4750732721.436104</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004721472371472101</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
+        <v>0.2131029912257372</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02454074663364394</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2375366357.928246</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10399598205.11908</v>
+        <v>2017475360.244431</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002470323727086463</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
+        <v>0.1280544375143401</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03860654986018888</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1008737666.94077</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6548318138.241837</v>
+        <v>2206372277.714683</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005004352509974493</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
+        <v>0.1069580462605786</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04497744789955613</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1103186112.297896</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4137013338.54164</v>
+        <v>3410574057.610915</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003192538535019183</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1154158578126983</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05634772183244581</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1705287133.348781</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6365316228.681321</v>
+        <v>2273210563.595474</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001989459758328396</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
+        <v>0.134404387976916</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0190833026404484</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1136605346.744298</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5085065317.65977</v>
+        <v>1216691633.871861</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001464343791001705</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1424951635422134</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04028727283488465</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>608345876.1929662</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8842368113.03105</v>
+        <v>3118644295.838947</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005090731407277885</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
+        <v>0.1411250622150219</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0277327846677672</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1559322189.366307</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6795529909.722915</v>
+        <v>2932793835.364391</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004360553834301659</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
+        <v>0.1459719250314695</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02902538885263508</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1466396960.119083</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4666452012.665551</v>
+        <v>1443486815.97194</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003097044060178474</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
+        <v>0.1123742603640844</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04889054273458573</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>721743375.7023658</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>8110257966.955072</v>
+        <v>1412501436.5379</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00422480919463023</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
+        <v>0.1839399932033423</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04217450491541878</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>706250767.950483</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4418512034.822552</v>
+        <v>2156833012.512177</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003603611459627861</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09441835923246231</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04610596680839558</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1078416463.685624</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7259264381.078592</v>
+        <v>3625960878.820814</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001227684240128819</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
+        <v>0.1228119045789004</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04045216757683544</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1812980463.617716</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5190398976.334707</v>
+        <v>1608291938.78651</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001440173941208983</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
+        <v>0.1322174451143129</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02885801707742016</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>804145915.7901182</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6965710051.074104</v>
+        <v>3047204858.654603</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001843613210738683</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
+        <v>0.09567485329809756</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.0363693158861384</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1523602424.711773</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6479344233.03888</v>
+        <v>2397919409.098536</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003184224666398166</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
+        <v>0.1379699527545789</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04138273579472766</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1198959648.191759</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6393767195.466049</v>
+        <v>3861206594.669759</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004991481114042931</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
+        <v>0.1272412972062565</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01843997098798771</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1930603341.804938</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>9102703324.696609</v>
+        <v>3951050760.182343</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003626399991911717</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
+        <v>0.1300983092311072</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02921407595033912</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1975525428.375315</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2691980488.5901</v>
+        <v>2780926382.363194</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00525628442145725</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1222289374922818</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02652537951573933</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1390463160.575211</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4332163404.002687</v>
+        <v>3033533761.044273</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00274132409716639</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1188106703536733</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02727278458732176</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1516766873.505692</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5622548180.805473</v>
+        <v>3397758655.733685</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001766486831712362</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
+        <v>0.1759671526291479</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04951076865904894</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1698879466.224788</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_5.xlsx
+++ b/output/fit_clients/fit_round_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2359852346.588336</v>
+        <v>1930250777.497618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1044732509374629</v>
+        <v>0.07153974520618704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02856322042786751</v>
+        <v>0.04497023501481862</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1179926216.808993</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1966488935.46278</v>
+        <v>2441219062.118176</v>
       </c>
       <c r="F3" t="n">
-        <v>0.150090061636082</v>
+        <v>0.1657448175245617</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03452277309097126</v>
+        <v>0.04269958580879489</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>983244501.9522731</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4724753817.68011</v>
+        <v>3602535327.270444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1328251570440566</v>
+        <v>0.1382481627961845</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03548265161745937</v>
+        <v>0.03499034235488675</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2362376973.832725</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3991339369.302039</v>
+        <v>4125603143.891112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09915798974982191</v>
+        <v>0.08054447998606935</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03872049083087634</v>
+        <v>0.03974061416307327</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1995669688.247943</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2673188452.613118</v>
+        <v>2149592768.095108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1148179480248362</v>
+        <v>0.1291775093214254</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0479997964879742</v>
+        <v>0.03791042494385052</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1336594182.190315</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1938756264.148363</v>
+        <v>2156747610.167371</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07303842123708629</v>
+        <v>0.07689717805511119</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04749332691057163</v>
+        <v>0.04890090584595774</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>969378198.3880054</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3793416809.101351</v>
+        <v>3407762799.553595</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1634421101959393</v>
+        <v>0.1622046862690323</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02630919035003292</v>
+        <v>0.03033895581134402</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1896708542.608848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1793492803.476604</v>
+        <v>2183628514.461008</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1238547211714303</v>
+        <v>0.1509183811616281</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03501572918637647</v>
+        <v>0.03720011847095641</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>896746456.3669637</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5088918950.817367</v>
+        <v>4026089189.169698</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1660936062013097</v>
+        <v>0.1910925842254627</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05291204709356365</v>
+        <v>0.03338662387551885</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2544459580.947351</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3058859762.270667</v>
+        <v>4122447497.302466</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1279998066373322</v>
+        <v>0.1832042283034947</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04786122027762164</v>
+        <v>0.03116382381983018</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1529429827.338923</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2656664743.772429</v>
+        <v>3000388794.133056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1888190407011009</v>
+        <v>0.1669420869275323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03466989628563155</v>
+        <v>0.03446579166482684</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1328332357.853281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4194019855.999774</v>
+        <v>3489077323.516</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07277934302997024</v>
+        <v>0.07191207828287176</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02987413199581683</v>
+        <v>0.03001903998301234</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2097009972.395257</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2935057666.783028</v>
+        <v>3307460588.660431</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1710522148390301</v>
+        <v>0.1624918761221782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0386062238851934</v>
+        <v>0.04253537528826439</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1467528871.940691</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1590372186.484571</v>
+        <v>1776457260.562984</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1080410429577687</v>
+        <v>0.1037927684339112</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0402763888101167</v>
+        <v>0.03527713076521961</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>795186198.6618989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2058410985.11478</v>
+        <v>2732062637.381777</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07809683154464543</v>
+        <v>0.07387818988155713</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03167767903952995</v>
+        <v>0.03621044779676046</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1029205562.292207</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4305302102.436307</v>
+        <v>3253156765.445965</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1662861409035447</v>
+        <v>0.1239562082182905</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04341123342183659</v>
+        <v>0.04625401667290734</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2152651070.097009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3074233385.25726</v>
+        <v>3646102131.000946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1366299360804333</v>
+        <v>0.168908324596934</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02702749293937919</v>
+        <v>0.02764849111275103</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1537116716.894866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>932306066.2559627</v>
+        <v>1021401284.441321</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1375751548648421</v>
+        <v>0.1346464737574589</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02635940136291868</v>
+        <v>0.02537203727457369</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>466153045.4378954</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2609266652.17406</v>
+        <v>2245091940.034581</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1535141884689918</v>
+        <v>0.1507831233942578</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02899454801738252</v>
+        <v>0.02265713117806104</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1304633285.880109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2649704542.137786</v>
+        <v>1711258320.265241</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08065258286000944</v>
+        <v>0.0734188181712891</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04109388686879759</v>
+        <v>0.02792476661695044</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1324852244.195544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3413600877.908926</v>
+        <v>3266349267.157138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08844569999220446</v>
+        <v>0.1226821931516036</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05578598321151115</v>
+        <v>0.03926011417152262</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1706800475.151808</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1080070284.559626</v>
+        <v>1510039199.479733</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1418007405052895</v>
+        <v>0.1647797152518036</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04528568473353715</v>
+        <v>0.03476791080824174</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>540035197.3843558</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3120650307.693816</v>
+        <v>2793980675.264892</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1411152933538115</v>
+        <v>0.1138763760446004</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03656473968031812</v>
+        <v>0.02535002074757581</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1560325180.374247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1102426036.492376</v>
+        <v>934330835.9504538</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1210952508821866</v>
+        <v>0.09831393744360629</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01968910187408483</v>
+        <v>0.02965388070799837</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>551213057.9325275</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1288076300.878963</v>
+        <v>1404369757.057899</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08885551246441753</v>
+        <v>0.1214955964004842</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03296268971649118</v>
+        <v>0.03098610230341719</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>644038192.482649</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3107304521.633771</v>
+        <v>3851142776.716944</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1157882153756312</v>
+        <v>0.1330005780696666</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02700401865896645</v>
+        <v>0.01651365265031637</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1553652314.570774</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2404531137.723911</v>
+        <v>2461858117.76717</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1049752768327759</v>
+        <v>0.1358711859657572</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03716816235235615</v>
+        <v>0.04853708972661401</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1202265527.456497</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4781136582.057091</v>
+        <v>4949867997.189748</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1337552889536217</v>
+        <v>0.1168999063977669</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03750153947643584</v>
+        <v>0.03738392906887805</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2390568252.24556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1962358665.093168</v>
+        <v>2289856900.240761</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1199762141124135</v>
+        <v>0.1267055718519637</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03472639312693488</v>
+        <v>0.03351732338833081</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>981179365.0747793</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1335529314.688898</v>
+        <v>1440354319.544127</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07248767784928002</v>
+        <v>0.1091866477145672</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04245005989921976</v>
+        <v>0.0449542824747932</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>667764576.0985098</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1577794000.197951</v>
+        <v>1830289482.629648</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1203943186999941</v>
+        <v>0.08359978871958128</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03650937255898447</v>
+        <v>0.032403494166198</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>788897083.7168748</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2066197668.413606</v>
+        <v>2346642612.873314</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1639559369453228</v>
+        <v>0.1593339287462695</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04324016280501611</v>
+        <v>0.03866595562050962</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1033098908.485599</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1090552288.39284</v>
+        <v>1273900829.259999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1103711174828997</v>
+        <v>0.1156844200366679</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02784847728337432</v>
+        <v>0.02357648051470767</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>545276166.2967322</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1032998173.435947</v>
+        <v>1107910395.12647</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0881570735181097</v>
+        <v>0.09872828369009433</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03032979551029468</v>
+        <v>0.04037339492303602</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>516499097.4245342</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3218459425.986156</v>
+        <v>2757065998.019547</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1113884305970896</v>
+        <v>0.1641190118363817</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01799748960388767</v>
+        <v>0.02686521356268712</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1609229676.347422</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1955715939.752152</v>
+        <v>2473986131.231611</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1001387117927</v>
+        <v>0.1118298821713719</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04057827213681681</v>
+        <v>0.03769214735474271</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>977857990.4997686</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1502395114.112404</v>
+        <v>1997109893.60127</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1077380269807497</v>
+        <v>0.09594493156519308</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03956430334781554</v>
+        <v>0.0296382041676825</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>751197605.3645893</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1491564305.082316</v>
+        <v>1674129776.60362</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1813322529014545</v>
+        <v>0.1422805224746775</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03145740695814755</v>
+        <v>0.0253522387977761</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>745782220.9143075</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1804274581.604621</v>
+        <v>1767864475.434854</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1604342079944308</v>
+        <v>0.1628751550811332</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04583165117066625</v>
+        <v>0.05856218501820238</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>902137179.386566</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2400153971.007449</v>
+        <v>2003782942.603287</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1634922722887939</v>
+        <v>0.1086331240135427</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04710262896524556</v>
+        <v>0.04231763116511865</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1200077019.130761</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3424619544.795389</v>
+        <v>4116509048.047642</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1243217379799672</v>
+        <v>0.09582592813587497</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04286700653651827</v>
+        <v>0.03891007374689924</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1712309761.237965</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2050254279.855589</v>
+        <v>2911972559.012649</v>
       </c>
       <c r="F43" t="n">
-        <v>0.205012255343533</v>
+        <v>0.1761640535437027</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01684696354334195</v>
+        <v>0.02196554963459259</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1025127231.69703</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1575118107.33115</v>
+        <v>2069109330.777582</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1026364365387405</v>
+        <v>0.09136102694182169</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03306681701384467</v>
+        <v>0.02871549283386353</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>787559074.514443</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1709417710.910954</v>
+        <v>2227356581.67526</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1380657893170213</v>
+        <v>0.1307149511623452</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0481847154477303</v>
+        <v>0.03874251375301754</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>854708815.1078138</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3707605178.413959</v>
+        <v>3813698675.836117</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1667182475891794</v>
+        <v>0.1121864946228971</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05202986390229455</v>
+        <v>0.04462973946582233</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1853802541.325453</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5108211343.146323</v>
+        <v>4350897558.581347</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1274636300103267</v>
+        <v>0.1621777199922415</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05552966488301503</v>
+        <v>0.04708727206239958</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2554105733.003879</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3565179335.441876</v>
+        <v>3559793762.497969</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1047465652376728</v>
+        <v>0.104555872207106</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03022056679365206</v>
+        <v>0.02921798514265544</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1782589726.619703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1308709535.592775</v>
+        <v>1262098711.562895</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1220594370262427</v>
+        <v>0.1498545337579761</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04359431797294819</v>
+        <v>0.04092910768293612</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>654354828.3843657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3081466811.132223</v>
+        <v>3512141511.931579</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1530848678181917</v>
+        <v>0.1129261804583638</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04128357330319989</v>
+        <v>0.04391442918413772</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1540733458.939253</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1422344910.878106</v>
+        <v>1234859968.475047</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1726500562386707</v>
+        <v>0.1292583690692</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04110230881625871</v>
+        <v>0.03369118120218086</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>711172470.3179463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3620867580.489436</v>
+        <v>4898284386.242445</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1186164202644933</v>
+        <v>0.09375622725632243</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05673173710603027</v>
+        <v>0.03966989003580766</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1810433866.914531</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3010867685.987234</v>
+        <v>2645525449.117013</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1285458626401041</v>
+        <v>0.1992177857956847</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02739524368578924</v>
+        <v>0.02320922825570589</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1505433874.046755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3032047226.607797</v>
+        <v>4895314191.014512</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1140044187765538</v>
+        <v>0.1363592993063447</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04370358773643743</v>
+        <v>0.04038562372207075</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1516023600.839406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3977640387.981495</v>
+        <v>3332263039.28242</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1693861115120908</v>
+        <v>0.1675302658377738</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01972910404298222</v>
+        <v>0.03220546609741821</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1988820167.265381</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1639653035.917403</v>
+        <v>1537125289.555934</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1122991570809771</v>
+        <v>0.1452878931616277</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04488169493961005</v>
+        <v>0.04011863006649528</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>819826538.8969246</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2791348382.705347</v>
+        <v>4318221429.710446</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1210886904055185</v>
+        <v>0.1303281042841164</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02245069486789619</v>
+        <v>0.02442839850145679</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1395674177.466111</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1542050966.545649</v>
+        <v>1216816754.594867</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1406553488885499</v>
+        <v>0.1749569975781269</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02461359730533591</v>
+        <v>0.03738654577386768</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>771025509.9523281</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5422517877.855727</v>
+        <v>4602779997.17015</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08310493695527518</v>
+        <v>0.1239359899040686</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03767747946033704</v>
+        <v>0.04639700167928568</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2711258844.109087</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2712681420.812788</v>
+        <v>3020446838.447739</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1467032958118726</v>
+        <v>0.1695959305074118</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02271041323976148</v>
+        <v>0.03076954960850301</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1356340750.064828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2328100166.569547</v>
+        <v>3310735011.928322</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1540821965702358</v>
+        <v>0.1242813800450392</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02811655112464741</v>
+        <v>0.03157115299240757</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1164050126.641226</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1979809568.663576</v>
+        <v>1582847299.849069</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1228272821985251</v>
+        <v>0.1758169095256603</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03283711517361997</v>
+        <v>0.04729051895116688</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>989904838.8090585</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4582215878.829566</v>
+        <v>4114164012.581322</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07588943346913835</v>
+        <v>0.09421829349056264</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04112125664502369</v>
+        <v>0.04360831408176344</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2291107974.851366</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3871483517.565486</v>
+        <v>4631502749.923895</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1216964056217621</v>
+        <v>0.1704219850388713</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02741569559803932</v>
+        <v>0.02846833991297066</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1935741784.862091</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4071167290.730051</v>
+        <v>5703901613.676445</v>
       </c>
       <c r="F65" t="n">
-        <v>0.155408287003714</v>
+        <v>0.1107861204593125</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02695787803126898</v>
+        <v>0.02660405212308662</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2035583659.190831</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4888172470.963022</v>
+        <v>3787392598.054891</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1325030723824587</v>
+        <v>0.127483794400374</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03585205806792201</v>
+        <v>0.0332969843314649</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2444086256.05144</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2866227692.775456</v>
+        <v>3291961034.002523</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06627930757082136</v>
+        <v>0.07087705032603574</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03295166950305894</v>
+        <v>0.03889510152823342</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1433113875.353053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5368262720.481015</v>
+        <v>5313208101.63165</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1499916616507694</v>
+        <v>0.1553582825863425</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03623396087963932</v>
+        <v>0.03823005318643484</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2684131438.255927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1625552661.973421</v>
+        <v>2298607773.72332</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1320593074544526</v>
+        <v>0.1726488629571081</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0438085928636064</v>
+        <v>0.04452330250928513</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>812776286.9908304</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2678039273.541078</v>
+        <v>2984155051.25479</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07317492359121143</v>
+        <v>0.1028228414786019</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03480286847101677</v>
+        <v>0.04968885886242253</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
         <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1339019591.927275</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3739434941.536652</v>
+        <v>4377562142.010736</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1139558644824703</v>
+        <v>0.1205227322069737</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02465988273227043</v>
+        <v>0.02589842917361364</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1869717481.912837</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1903700713.442566</v>
+        <v>2113323545.927116</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08316198614612318</v>
+        <v>0.09513519343790898</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03910854853023097</v>
+        <v>0.03950150975743448</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>951850317.9751682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2713318992.850764</v>
+        <v>3144973136.784306</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09497315548251269</v>
+        <v>0.07331935220633591</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04441711123481434</v>
+        <v>0.04544839448764591</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1356659518.102059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3400081002.40682</v>
+        <v>2998125945.702031</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1345325360987803</v>
+        <v>0.1708057084126982</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02424952061816924</v>
+        <v>0.02824424522805267</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1700040530.759462</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1620570532.542355</v>
+        <v>2440247070.631563</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1359171571148003</v>
+        <v>0.1272961695466604</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03724959785579455</v>
+        <v>0.02946818533477056</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>810285265.5256039</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4312511054.467282</v>
+        <v>5127083648.347658</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08864843239499631</v>
+        <v>0.08964863402248105</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02126071981624824</v>
+        <v>0.02324754190172621</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2156255524.45623</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1854942174.947722</v>
+        <v>1969010264.164234</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1745315385791933</v>
+        <v>0.1368031281345374</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02698392498339125</v>
+        <v>0.02676237549017714</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>927471126.9671494</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3936064212.394616</v>
+        <v>4290635382.666168</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1033697910452027</v>
+        <v>0.1332199555568076</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04468170007719532</v>
+        <v>0.05505855384296156</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1968032075.892398</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1459234349.099471</v>
+        <v>1458595147.478424</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1364455815316915</v>
+        <v>0.172657594803951</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0259185521074078</v>
+        <v>0.02739321857905802</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>729617200.9498552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3916425545.992997</v>
+        <v>4803809014.823936</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08482378900329798</v>
+        <v>0.1025177285252079</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03846740379057165</v>
+        <v>0.02660921003068263</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
         <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1958212767.718207</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4705662391.728892</v>
+        <v>4912163865.377334</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1040337296979856</v>
+        <v>0.09802328167729651</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03187274574430639</v>
+        <v>0.0319253421788887</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
         <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2352831184.756918</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4750732721.436104</v>
+        <v>5326994749.795583</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2131029912257372</v>
+        <v>0.1647022069205064</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02454074663364394</v>
+        <v>0.02542936946736545</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2375366357.928246</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2017475360.244431</v>
+        <v>2005890330.267137</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1280544375143401</v>
+        <v>0.1219783060280417</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03860654986018888</v>
+        <v>0.03235729758010044</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1008737666.94077</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2206372277.714683</v>
+        <v>2352188777.683975</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1069580462605786</v>
+        <v>0.08135108432813627</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04497744789955613</v>
+        <v>0.0416156240602761</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1103186112.297896</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3410574057.610915</v>
+        <v>2791610238.392826</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1154158578126983</v>
+        <v>0.1667903300120401</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05634772183244581</v>
+        <v>0.05051207667480914</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1705287133.348781</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2273210563.595474</v>
+        <v>2283017989.08453</v>
       </c>
       <c r="F86" t="n">
-        <v>0.134404387976916</v>
+        <v>0.1309045392110939</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0190833026404484</v>
+        <v>0.02360298674448294</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1136605346.744298</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1216691633.871861</v>
+        <v>1131469428.460275</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1424951635422134</v>
+        <v>0.1275701814523731</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04028727283488465</v>
+        <v>0.03629780109679397</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>608345876.1929662</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3118644295.838947</v>
+        <v>2505666476.673027</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1411250622150219</v>
+        <v>0.1314381246376388</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0277327846677672</v>
+        <v>0.03448386897346377</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1559322189.366307</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2932793835.364391</v>
+        <v>2560126871.839234</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1459719250314695</v>
+        <v>0.1130122468746373</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02902538885263508</v>
+        <v>0.03283948348665696</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1466396960.119083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1443486815.97194</v>
+        <v>1666232147.747033</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1123742603640844</v>
+        <v>0.1074376685321582</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04889054273458573</v>
+        <v>0.04452581118910379</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>721743375.7023658</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1412501436.5379</v>
+        <v>1991990109.952338</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1839399932033423</v>
+        <v>0.14175598242197</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04217450491541878</v>
+        <v>0.05057537789183989</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>706250767.950483</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2156833012.512177</v>
+        <v>2002336276.386923</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09441835923246231</v>
+        <v>0.1026332671112419</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04610596680839558</v>
+        <v>0.0434010113183661</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
         <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1078416463.685624</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3625960878.820814</v>
+        <v>4493562971.176974</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1228119045789004</v>
+        <v>0.09445328616688009</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04045216757683544</v>
+        <v>0.05233468827668496</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1812980463.617716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1608291938.78651</v>
+        <v>2391568888.068492</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1322174451143129</v>
+        <v>0.1297353896265174</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02885801707742016</v>
+        <v>0.03344696720197159</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>804145915.7901182</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3047204858.654603</v>
+        <v>2395997883.782952</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09567485329809756</v>
+        <v>0.1018579832596374</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0363693158861384</v>
+        <v>0.03860495904242203</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1523602424.711773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2397919409.098536</v>
+        <v>1923111810.463331</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1379699527545789</v>
+        <v>0.09751403291747748</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04138273579472766</v>
+        <v>0.03351971384246384</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1198959648.191759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3861206594.669759</v>
+        <v>4605974783.260128</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1272412972062565</v>
+        <v>0.1444418306713174</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01843997098798771</v>
+        <v>0.01796927864316832</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1930603341.804938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3951050760.182343</v>
+        <v>2450816148.601402</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1300983092311072</v>
+        <v>0.1234679884761723</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02921407595033912</v>
+        <v>0.02573939346829734</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
         <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1975525428.375315</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2780926382.363194</v>
+        <v>2336942064.275627</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1222289374922818</v>
+        <v>0.1271568030215243</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02652537951573933</v>
+        <v>0.02908964158225018</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1390463160.575211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3033533761.044273</v>
+        <v>3617503808.683828</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1188106703536733</v>
+        <v>0.12767593700986</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02727278458732176</v>
+        <v>0.02619970797194481</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1516766873.505692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3397758655.733685</v>
+        <v>3489893573.421906</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1759671526291479</v>
+        <v>0.2073053675576921</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04951076865904894</v>
+        <v>0.05782379574076375</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1698879466.224788</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_5.xlsx
+++ b/output/fit_clients/fit_round_5.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1930250777.497618</v>
+        <v>2459066361.720089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07153974520618704</v>
+        <v>0.09593406253176588</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04497023501481862</v>
+        <v>0.03003658451803456</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2441219062.118176</v>
+        <v>2456353290.342437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1657448175245617</v>
+        <v>0.121167520016429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04269958580879489</v>
+        <v>0.0469753047049009</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3602535327.270444</v>
+        <v>3745207090.994917</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1382481627961845</v>
+        <v>0.1669491777172005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03499034235488675</v>
+        <v>0.02907569013431163</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4125603143.891112</v>
+        <v>3713543802.890324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08054447998606935</v>
+        <v>0.08585458072931995</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03974061416307327</v>
+        <v>0.03968391600763554</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2149592768.095108</v>
+        <v>2711701518.49719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1291775093214254</v>
+        <v>0.1480891884566764</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03791042494385052</v>
+        <v>0.05109317325016636</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2156747610.167371</v>
+        <v>2158837719.125841</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07689717805511119</v>
+        <v>0.09931469367071204</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04890090584595774</v>
+        <v>0.03421962617161293</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3407762799.553595</v>
+        <v>2779988320.622764</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1622046862690323</v>
+        <v>0.1944652715038449</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03033895581134402</v>
+        <v>0.02383989242282319</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2183628514.461008</v>
+        <v>2057635229.778596</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1509183811616281</v>
+        <v>0.1905202557283954</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03720011847095641</v>
+        <v>0.03241779983708939</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4026089189.169698</v>
+        <v>5029982690.727626</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1910925842254627</v>
+        <v>0.1864586388466465</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03338662387551885</v>
+        <v>0.04074254612942439</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4122447497.302466</v>
+        <v>3814983939.054154</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1832042283034947</v>
+        <v>0.1563394346180672</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03116382381983018</v>
+        <v>0.04507177714868002</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3000388794.133056</v>
+        <v>3207644704.147174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1669420869275323</v>
+        <v>0.1577867792013626</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03446579166482684</v>
+        <v>0.04881952274215158</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3489077323.516</v>
+        <v>4736368266.377808</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07191207828287176</v>
+        <v>0.0826950214140091</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03001903998301234</v>
+        <v>0.02499945052343057</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3307460588.660431</v>
+        <v>3490380852.681307</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1624918761221782</v>
+        <v>0.1545445060283706</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04253537528826439</v>
+        <v>0.0299866920687277</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1776457260.562984</v>
+        <v>1153161425.433524</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1037927684339112</v>
+        <v>0.07520541260930318</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03527713076521961</v>
+        <v>0.0394573646004162</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2732062637.381777</v>
+        <v>2322042914.435072</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07387818988155713</v>
+        <v>0.1009537300333913</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03621044779676046</v>
+        <v>0.04946800895783201</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3253156765.445965</v>
+        <v>3820090359.890607</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1239562082182905</v>
+        <v>0.1490757443220709</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04625401667290734</v>
+        <v>0.03740277767110824</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3646102131.000946</v>
+        <v>2619798820.372747</v>
       </c>
       <c r="F18" t="n">
-        <v>0.168908324596934</v>
+        <v>0.1471073793498646</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02764849111275103</v>
+        <v>0.03364483875653663</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1021401284.441321</v>
+        <v>1121639900.04188</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1346464737574589</v>
+        <v>0.1402788001639828</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02537203727457369</v>
+        <v>0.01805253074093523</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2245091940.034581</v>
+        <v>1723274827.199081</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1507831233942578</v>
+        <v>0.138635774335674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02265713117806104</v>
+        <v>0.02334786180191323</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1711258320.265241</v>
+        <v>2627488249.633065</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0734188181712891</v>
+        <v>0.06481831229190604</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02792476661695044</v>
+        <v>0.03906982091993487</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3266349267.157138</v>
+        <v>3234464643.463296</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1226821931516036</v>
+        <v>0.1386294596250945</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03926011417152262</v>
+        <v>0.03604384410185058</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1510039199.479733</v>
+        <v>1172565491.810895</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1647797152518036</v>
+        <v>0.1801565634755463</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03476791080824174</v>
+        <v>0.03493898872632487</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2793980675.264892</v>
+        <v>2834664720.255657</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1138763760446004</v>
+        <v>0.1220756467134245</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02535002074757581</v>
+        <v>0.03527784322975448</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>934330835.9504538</v>
+        <v>1367749834.600872</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09831393744360629</v>
+        <v>0.09054408511830196</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02965388070799837</v>
+        <v>0.02740162367274717</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1404369757.057899</v>
+        <v>1350134949.292753</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1214955964004842</v>
+        <v>0.1009093322633945</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03098610230341719</v>
+        <v>0.02970978781105019</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3851142776.716944</v>
+        <v>3733279344.296956</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1330005780696666</v>
+        <v>0.09972377798713587</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01651365265031637</v>
+        <v>0.01677114511242785</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2461858117.76717</v>
+        <v>2700288144.040125</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1358711859657572</v>
+        <v>0.1126803941068818</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04853708972661401</v>
+        <v>0.04207066506214001</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4949867997.189748</v>
+        <v>3729134005.994937</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1168999063977669</v>
+        <v>0.1251198171842544</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03738392906887805</v>
+        <v>0.03250546652616162</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2289856900.240761</v>
+        <v>2192280340.865896</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1267055718519637</v>
+        <v>0.1322890141249965</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03351732338833081</v>
+        <v>0.03434903586228157</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1440354319.544127</v>
+        <v>1074786089.530687</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1091866477145672</v>
+        <v>0.0839291318337798</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0449542824747932</v>
+        <v>0.04492958030623627</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1830289482.629648</v>
+        <v>1461979873.245302</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08359978871958128</v>
+        <v>0.1007399801318529</v>
       </c>
       <c r="G32" t="n">
-        <v>0.032403494166198</v>
+        <v>0.02721425020235217</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2346642612.873314</v>
+        <v>2712062805.294336</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1593339287462695</v>
+        <v>0.1929114864487455</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03866595562050962</v>
+        <v>0.05207796315752208</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1273900829.259999</v>
+        <v>1534626598.761326</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1156844200366679</v>
+        <v>0.1029979531525883</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02357648051470767</v>
+        <v>0.02724755667520636</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1107910395.12647</v>
+        <v>1091322424.191845</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09872828369009433</v>
+        <v>0.109350753213452</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04037339492303602</v>
+        <v>0.04512067727191131</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2757065998.019547</v>
+        <v>2378290278.906916</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1641190118363817</v>
+        <v>0.1170046152833535</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02686521356268712</v>
+        <v>0.02729180391878388</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2473986131.231611</v>
+        <v>1974391564.560278</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1118298821713719</v>
+        <v>0.08533023469449644</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03769214735474271</v>
+        <v>0.04219421514356574</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1997109893.60127</v>
+        <v>1725117110.278531</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09594493156519308</v>
+        <v>0.101109235686674</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0296382041676825</v>
+        <v>0.024478828183482</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1674129776.60362</v>
+        <v>2089856925.518383</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1422805224746775</v>
+        <v>0.1756235303628652</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0253522387977761</v>
+        <v>0.0323168943382796</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1767864475.434854</v>
+        <v>1631449414.254053</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1628751550811332</v>
+        <v>0.1127644485472415</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05856218501820238</v>
+        <v>0.04446519365638255</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2003782942.603287</v>
+        <v>2019296921.844899</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1086331240135427</v>
+        <v>0.1599116610817187</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04231763116511865</v>
+        <v>0.03062369447716454</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4116509048.047642</v>
+        <v>3197083922.518177</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09582592813587497</v>
+        <v>0.1083248255355981</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03891007374689924</v>
+        <v>0.03706997121406869</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2911972559.012649</v>
+        <v>2315456869.251166</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1761640535437027</v>
+        <v>0.1999626562861325</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02196554963459259</v>
+        <v>0.02372669162187908</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2069109330.777582</v>
+        <v>1559707519.124707</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09136102694182169</v>
+        <v>0.1030006444696665</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02871549283386353</v>
+        <v>0.0231131440988683</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2227356581.67526</v>
+        <v>2031588255.822339</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1307149511623452</v>
+        <v>0.1323844227257424</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03874251375301754</v>
+        <v>0.04613390972471268</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3813698675.836117</v>
+        <v>4996476173.676702</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1121864946228971</v>
+        <v>0.1199017584152309</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04462973946582233</v>
+        <v>0.0550093801027855</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4350897558.581347</v>
+        <v>4439242707.142193</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1621777199922415</v>
+        <v>0.2012811378845455</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04708727206239958</v>
+        <v>0.03708251044150413</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3559793762.497969</v>
+        <v>3845465686.001305</v>
       </c>
       <c r="F48" t="n">
-        <v>0.104555872207106</v>
+        <v>0.0896956273177042</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02921798514265544</v>
+        <v>0.02838644380232075</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1262098711.562895</v>
+        <v>1358411601.555362</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1498545337579761</v>
+        <v>0.1605023483341253</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04092910768293612</v>
+        <v>0.04168679833129318</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3512141511.931579</v>
+        <v>2731290533.370485</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1129261804583638</v>
+        <v>0.1273857026083257</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04391442918413772</v>
+        <v>0.04418280618606907</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1234859968.475047</v>
+        <v>1128659476.552895</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1292583690692</v>
+        <v>0.141121500496451</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03369118120218086</v>
+        <v>0.05284992680849893</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4898284386.242445</v>
+        <v>3431278356.615871</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09375622725632243</v>
+        <v>0.08624236147088832</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03966989003580766</v>
+        <v>0.04546126732640948</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2645525449.117013</v>
+        <v>2561827848.526743</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1992177857956847</v>
+        <v>0.1437357832567286</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02320922825570589</v>
+        <v>0.02864252707165075</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4895314191.014512</v>
+        <v>3774051541.698963</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1363592993063447</v>
+        <v>0.1395007599706498</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04038562372207075</v>
+        <v>0.04570244885069812</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3332263039.28242</v>
+        <v>4496340166.524559</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1675302658377738</v>
+        <v>0.1845146552836077</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03220546609741821</v>
+        <v>0.02675303902212739</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1537125289.555934</v>
+        <v>1800877238.259834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1452878931616277</v>
+        <v>0.124521388274103</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04011863006649528</v>
+        <v>0.04458757441264739</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4318221429.710446</v>
+        <v>2858015785.767257</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1303281042841164</v>
+        <v>0.1146521865657634</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02442839850145679</v>
+        <v>0.01945866724209866</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1216816754.594867</v>
+        <v>1427434128.883789</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1749569975781269</v>
+        <v>0.1232737645857172</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03738654577386768</v>
+        <v>0.03053549551641596</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4602779997.17015</v>
+        <v>5085969093.021769</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1239359899040686</v>
+        <v>0.09004141537092314</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04639700167928568</v>
+        <v>0.03427028545554774</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3020446838.447739</v>
+        <v>2864881212.174059</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1695959305074118</v>
+        <v>0.1423328577003572</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03076954960850301</v>
+        <v>0.02754986818083113</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3310735011.928322</v>
+        <v>3236224938.033572</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1242813800450392</v>
+        <v>0.1113058153778744</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03157115299240757</v>
+        <v>0.03242923321625658</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1582847299.849069</v>
+        <v>1831854141.677048</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1758169095256603</v>
+        <v>0.1358518761363964</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04729051895116688</v>
+        <v>0.03767284459385797</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4114164012.581322</v>
+        <v>5294650466.76853</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09421829349056264</v>
+        <v>0.0650598106564849</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04360831408176344</v>
+        <v>0.03649384503419845</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4631502749.923895</v>
+        <v>4397799890.320276</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1704219850388713</v>
+        <v>0.1611645666475404</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02846833991297066</v>
+        <v>0.03131714198234353</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5703901613.676445</v>
+        <v>5133747637.370986</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1107861204593125</v>
+        <v>0.1420874523949844</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02660405212308662</v>
+        <v>0.0240364920586976</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3787392598.054891</v>
+        <v>4334263919.504176</v>
       </c>
       <c r="F66" t="n">
-        <v>0.127483794400374</v>
+        <v>0.1131685457393866</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0332969843314649</v>
+        <v>0.03770928825789673</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3291961034.002523</v>
+        <v>2913369769.177881</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07087705032603574</v>
+        <v>0.07064359392972321</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03889510152823342</v>
+        <v>0.03573030815657579</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5313208101.63165</v>
+        <v>3770781442.816798</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1553582825863425</v>
+        <v>0.148678221483791</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03823005318643484</v>
+        <v>0.04439782041780559</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2298607773.72332</v>
+        <v>2068100640.496789</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1726488629571081</v>
+        <v>0.1370721719830553</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04452330250928513</v>
+        <v>0.04989292705343679</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2984155051.25479</v>
+        <v>3612187600.664093</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1028228414786019</v>
+        <v>0.08845183011365167</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04968885886242253</v>
+        <v>0.03900684558414744</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4377562142.010736</v>
+        <v>5051692555.418796</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1205227322069737</v>
+        <v>0.1416219967711558</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02589842917361364</v>
+        <v>0.02776133730086347</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2113323545.927116</v>
+        <v>1707267510.613335</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09513519343790898</v>
+        <v>0.08328955490383037</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03950150975743448</v>
+        <v>0.0497552762771024</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3144973136.784306</v>
+        <v>2246714319.882449</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07331935220633591</v>
+        <v>0.08947761534876025</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04544839448764591</v>
+        <v>0.03510542507880651</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2998125945.702031</v>
+        <v>2931987461.146575</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1708057084126982</v>
+        <v>0.1428937025286967</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02824424522805267</v>
+        <v>0.02741801813005823</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2440247070.631563</v>
+        <v>2427555282.840671</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1272961695466604</v>
+        <v>0.1585351947153479</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02946818533477056</v>
+        <v>0.02713120004011785</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5127083648.347658</v>
+        <v>4125935857.0473</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08964863402248105</v>
+        <v>0.08938864922034878</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02324754190172621</v>
+        <v>0.02710797187377696</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1969010264.164234</v>
+        <v>1472247536.625723</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1368031281345374</v>
+        <v>0.1217040687149248</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02676237549017714</v>
+        <v>0.02986278380460922</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4290635382.666168</v>
+        <v>3362756780.948303</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1332199555568076</v>
+        <v>0.08270563272138798</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05505855384296156</v>
+        <v>0.05576528212507364</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1458595147.478424</v>
+        <v>1716912503.01589</v>
       </c>
       <c r="F79" t="n">
-        <v>0.172657594803951</v>
+        <v>0.1093802927249251</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02739321857905802</v>
+        <v>0.03588709939300835</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4803809014.823936</v>
+        <v>4198818714.574461</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1025177285252079</v>
+        <v>0.09068937291223605</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02660921003068263</v>
+        <v>0.03225733208328493</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4912163865.377334</v>
+        <v>4522520559.033164</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09802328167729651</v>
+        <v>0.08708151868679356</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0319253421788887</v>
+        <v>0.02380758641793685</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5326994749.795583</v>
+        <v>3474612398.337666</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1647022069205064</v>
+        <v>0.1829167512050973</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02542936946736545</v>
+        <v>0.02194337096883758</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2005890330.267137</v>
+        <v>2319272540.448627</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1219783060280417</v>
+        <v>0.1310983398538471</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03235729758010044</v>
+        <v>0.03762319076127193</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2352188777.683975</v>
+        <v>2485000611.604333</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08135108432813627</v>
+        <v>0.1092681760136916</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0416156240602761</v>
+        <v>0.03333810798139748</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2791610238.392826</v>
+        <v>2695487200.534023</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1667903300120401</v>
+        <v>0.1747615372476632</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05051207667480914</v>
+        <v>0.04793712517870585</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2283017989.08453</v>
+        <v>1831402439.38954</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1309045392110939</v>
+        <v>0.1276542283712748</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02360298674448294</v>
+        <v>0.02366861151336469</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1131469428.460275</v>
+        <v>1186189249.410184</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1275701814523731</v>
+        <v>0.1847146821898646</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03629780109679397</v>
+        <v>0.0302482337177655</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2505666476.673027</v>
+        <v>3031990112.107228</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1314381246376388</v>
+        <v>0.1309156443010635</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03448386897346377</v>
+        <v>0.0330204697289411</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2560126871.839234</v>
+        <v>2557461979.311352</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1130122468746373</v>
+        <v>0.153788887326962</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03283948348665696</v>
+        <v>0.03957552810571018</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1666232147.747033</v>
+        <v>1346686848.509788</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1074376685321582</v>
+        <v>0.1290173417762416</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04452581118910379</v>
+        <v>0.05269292121995926</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1991990109.952338</v>
+        <v>1992760612.783835</v>
       </c>
       <c r="F91" t="n">
-        <v>0.14175598242197</v>
+        <v>0.1290952596711829</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05057537789183989</v>
+        <v>0.04133166941395863</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2002336276.386923</v>
+        <v>2793752289.526054</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1026332671112419</v>
+        <v>0.08423407179719294</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0434010113183661</v>
+        <v>0.03710491211665945</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4493562971.176974</v>
+        <v>3408563083.801009</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09445328616688009</v>
+        <v>0.08695934622471038</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05233468827668496</v>
+        <v>0.04567876192145796</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2391568888.068492</v>
+        <v>2460829622.52197</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1297353896265174</v>
+        <v>0.119791442788407</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03344696720197159</v>
+        <v>0.0356750392351283</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2395997883.782952</v>
+        <v>2733964381.18784</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1018579832596374</v>
+        <v>0.08898050367784394</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03860495904242203</v>
+        <v>0.03404194710896268</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1923111810.463331</v>
+        <v>1767669754.774436</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09751403291747748</v>
+        <v>0.1020987297270869</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03351971384246384</v>
+        <v>0.03792208085190288</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4605974783.260128</v>
+        <v>5175839200.470823</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1444418306713174</v>
+        <v>0.1665769498624161</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01796927864316832</v>
+        <v>0.02776600198876334</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2450816148.601402</v>
+        <v>2492111352.208251</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1234679884761723</v>
+        <v>0.09592850535985674</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02573939346829734</v>
+        <v>0.02105501848480466</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2336942064.275627</v>
+        <v>2116521142.861533</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1271568030215243</v>
+        <v>0.1145828797837259</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02908964158225018</v>
+        <v>0.02639800297254721</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3617503808.683828</v>
+        <v>3936216455.767257</v>
       </c>
       <c r="F100" t="n">
-        <v>0.12767593700986</v>
+        <v>0.1655384071976037</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02619970797194481</v>
+        <v>0.02302729132739615</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3489893573.421906</v>
+        <v>2629645884.574352</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2073053675576921</v>
+        <v>0.2043531121048457</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05782379574076375</v>
+        <v>0.0401549707511854</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_5.xlsx
+++ b/output/fit_clients/fit_round_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2459066361.720089</v>
+        <v>1581734260.15918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09593406253176588</v>
+        <v>0.08098854921714434</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03003658451803456</v>
+        <v>0.03919354474350377</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2456353290.342437</v>
+        <v>2597858654.580083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121167520016429</v>
+        <v>0.1720252287018783</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0469753047049009</v>
+        <v>0.0373564802725527</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3745207090.994917</v>
+        <v>4169376186.378582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1669491777172005</v>
+        <v>0.1500071160925568</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02907569013431163</v>
+        <v>0.02848474265238867</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.0802409980379</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3713543802.890324</v>
+        <v>3553721371.910985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08585458072931995</v>
+        <v>0.08045167355796499</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03968391600763554</v>
+        <v>0.03491733036651257</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2711701518.49719</v>
+        <v>2513859488.439532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1480891884566764</v>
+        <v>0.1340489227896765</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05109317325016636</v>
+        <v>0.04386167810753727</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2158837719.125841</v>
+        <v>2343482807.543007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09931469367071204</v>
+        <v>0.07986462736696211</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03421962617161293</v>
+        <v>0.04797649031560627</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2779988320.622764</v>
+        <v>3401350146.806076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1944652715038449</v>
+        <v>0.1968416469499477</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02383989242282319</v>
+        <v>0.03054506176748313</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2057635229.778596</v>
+        <v>1769950258.347666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1905202557283954</v>
+        <v>0.1337049126015272</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03241779983708939</v>
+        <v>0.02798247170649914</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5029982690.727626</v>
+        <v>3885973402.500184</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1864586388466465</v>
+        <v>0.144790994401325</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04074254612942439</v>
+        <v>0.04229103826522102</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.2051052928074</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3814983939.054154</v>
+        <v>3016409832.720362</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1563394346180672</v>
+        <v>0.1745546848379779</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04507177714868002</v>
+        <v>0.04740946504842469</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>144.7611767697675</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3207644704.147174</v>
+        <v>2444969863.039454</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1577867792013626</v>
+        <v>0.1800139941786955</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04881952274215158</v>
+        <v>0.04425726652551577</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4736368266.377808</v>
+        <v>3780841264.012722</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0826950214140091</v>
+        <v>0.08039057453998175</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02499945052343057</v>
+        <v>0.02519722083857893</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3490380852.681307</v>
+        <v>2680246759.4413</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1545445060283706</v>
+        <v>0.1604679774473483</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0299866920687277</v>
+        <v>0.04121527879451035</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1153161425.433524</v>
+        <v>1145093002.217363</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07520541260930318</v>
+        <v>0.06955748985017812</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0394573646004162</v>
+        <v>0.0309893665772647</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2322042914.435072</v>
+        <v>1981709655.920955</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1009537300333913</v>
+        <v>0.07852524233345548</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04946800895783201</v>
+        <v>0.03246505704967969</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3820090359.890607</v>
+        <v>4916280701.821319</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1490757443220709</v>
+        <v>0.1715121654063662</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03740277767110824</v>
+        <v>0.04807764734092791</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>198.0171942856735</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2619798820.372747</v>
+        <v>2543385511.805755</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1471073793498646</v>
+        <v>0.1234320435813112</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03364483875653663</v>
+        <v>0.0218366331230246</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>94.04511182082018</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1121639900.04188</v>
+        <v>1225556395.879353</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1402788001639828</v>
+        <v>0.1758208053395648</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01805253074093523</v>
+        <v>0.01758744750011756</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1723274827.199081</v>
+        <v>1767031390.353895</v>
       </c>
       <c r="F20" t="n">
-        <v>0.138635774335674</v>
+        <v>0.1535095692013489</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02334786180191323</v>
+        <v>0.02382759309955248</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2627488249.633065</v>
+        <v>1875898341.047138</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06481831229190604</v>
+        <v>0.08389177559525794</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03906982091993487</v>
+        <v>0.02822974950536842</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3234464643.463296</v>
+        <v>3655685862.508952</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1386294596250945</v>
+        <v>0.1315193986236566</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03604384410185058</v>
+        <v>0.05658430869676809</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1172565491.810895</v>
+        <v>1226030797.154175</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1801565634755463</v>
+        <v>0.1435828570105139</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03493898872632487</v>
+        <v>0.0512503169101244</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2834664720.255657</v>
+        <v>2975977462.67967</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1220756467134245</v>
+        <v>0.1444285125476897</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03527784322975448</v>
+        <v>0.03402519714007184</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>120.885605851036</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1367749834.600872</v>
+        <v>1106432546.015623</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09054408511830196</v>
+        <v>0.08570970089885609</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02740162367274717</v>
+        <v>0.0240249280915777</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1350134949.292753</v>
+        <v>1013075976.285604</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1009093322633945</v>
+        <v>0.09141353656605621</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02970978781105019</v>
+        <v>0.03825003781555221</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3733279344.296956</v>
+        <v>4043771601.932852</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09972377798713587</v>
+        <v>0.108077842530488</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01677114511242785</v>
+        <v>0.02065520131969139</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>171.6414878663003</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2700288144.040125</v>
+        <v>3845668447.60311</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1126803941068818</v>
+        <v>0.1249485953776352</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04207066506214001</v>
+        <v>0.03701035091042702</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3729134005.994937</v>
+        <v>3671893693.344883</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1251198171842544</v>
+        <v>0.1275468837186048</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03250546652616162</v>
+        <v>0.04641511727441905</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>224.9085874093253</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2192280340.865896</v>
+        <v>1918348565.712507</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1322890141249965</v>
+        <v>0.1323017127463694</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03434903586228157</v>
+        <v>0.03174474123749893</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1074786089.530687</v>
+        <v>1382761836.632158</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0839291318337798</v>
+        <v>0.09069344650655484</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04492958030623627</v>
+        <v>0.04235113602883322</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1461979873.245302</v>
+        <v>1153995480.605125</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1007399801318529</v>
+        <v>0.1153499182501491</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02721425020235217</v>
+        <v>0.02336767731078471</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2712062805.294336</v>
+        <v>2469897601.263067</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1929114864487455</v>
+        <v>0.2014597023156097</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05207796315752208</v>
+        <v>0.04045941223266891</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1534626598.761326</v>
+        <v>982814621.4817392</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1029979531525883</v>
+        <v>0.1100977870343776</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02724755667520636</v>
+        <v>0.02402864548069231</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1091322424.191845</v>
+        <v>1050472140.601351</v>
       </c>
       <c r="F35" t="n">
-        <v>0.109350753213452</v>
+        <v>0.1056143967480395</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04512067727191131</v>
+        <v>0.04388793073803703</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2378290278.906916</v>
+        <v>2947035828.217055</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1170046152833535</v>
+        <v>0.1142151437770394</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02729180391878388</v>
+        <v>0.02898753275598142</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1974391564.560278</v>
+        <v>2903293012.665558</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08533023469449644</v>
+        <v>0.1057469180759305</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04219421514356574</v>
+        <v>0.04140138107940333</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1725117110.278531</v>
+        <v>1586483391.2981</v>
       </c>
       <c r="F38" t="n">
-        <v>0.101109235686674</v>
+        <v>0.1195909678248519</v>
       </c>
       <c r="G38" t="n">
-        <v>0.024478828183482</v>
+        <v>0.0344473437835344</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2089856925.518383</v>
+        <v>1695254150.205471</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1756235303628652</v>
+        <v>0.1487351855958668</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0323168943382796</v>
+        <v>0.03101063095313481</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1631449414.254053</v>
+        <v>1332278369.502827</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1127644485472415</v>
+        <v>0.1179213229441829</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04446519365638255</v>
+        <v>0.03756625186627166</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2019296921.844899</v>
+        <v>1931814169.893942</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1599116610817187</v>
+        <v>0.1270161931459356</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03062369447716454</v>
+        <v>0.03410877957302842</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3197083922.518177</v>
+        <v>4151141665.436789</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1083248255355981</v>
+        <v>0.08813499226875859</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03706997121406869</v>
+        <v>0.03954263434676834</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2315456869.251166</v>
+        <v>1895038188.059164</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1999626562861325</v>
+        <v>0.17088851668307</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02372669162187908</v>
+        <v>0.02362793644533665</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1559707519.124707</v>
+        <v>2254862124.552925</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1030006444696665</v>
+        <v>0.07885647465236818</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0231131440988683</v>
+        <v>0.03703136153354444</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2031588255.822339</v>
+        <v>2414418337.583001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1323844227257424</v>
+        <v>0.1745422359161742</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04613390972471268</v>
+        <v>0.05204727147030161</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4996476173.676702</v>
+        <v>4678580236.355739</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1199017584152309</v>
+        <v>0.1141316318311433</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0550093801027855</v>
+        <v>0.03956853538943797</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.3943931841474</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4439242707.142193</v>
+        <v>4981235277.357711</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2012811378845455</v>
+        <v>0.1867417052621564</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03708251044150413</v>
+        <v>0.04896307853009747</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.7893183135335</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3845465686.001305</v>
+        <v>3632596200.604203</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0896956273177042</v>
+        <v>0.08535172504886222</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02838644380232075</v>
+        <v>0.02616878935299741</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1358411601.555362</v>
+        <v>1943848299.356155</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1605023483341253</v>
+        <v>0.1225399565591444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04168679833129318</v>
+        <v>0.03069635847315648</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2731290533.370485</v>
+        <v>3491108720.686059</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1273857026083257</v>
+        <v>0.1768000004023358</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04418280618606907</v>
+        <v>0.03831001538387158</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>179.023506131303</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1128659476.552895</v>
+        <v>1316129505.76593</v>
       </c>
       <c r="F51" t="n">
-        <v>0.141121500496451</v>
+        <v>0.1260187289960864</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05284992680849893</v>
+        <v>0.04866744007012894</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3431278356.615871</v>
+        <v>3369286335.258548</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08624236147088832</v>
+        <v>0.1266838854611271</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04546126732640948</v>
+        <v>0.04507026318651868</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>180.487604121764</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2561827848.526743</v>
+        <v>2361291991.058538</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1437357832567286</v>
+        <v>0.1710549974466575</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02864252707165075</v>
+        <v>0.0259960146829611</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2345,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3774051541.698963</v>
+        <v>4477969281.579617</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1395007599706498</v>
+        <v>0.1368294484238093</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04570244885069812</v>
+        <v>0.03284799694305781</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>210.488206478993</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2382,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4496340166.524559</v>
+        <v>3142858610.079765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1845146552836077</v>
+        <v>0.1779279412337224</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02675303902212739</v>
+        <v>0.03241562184992997</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>125.8033200572846</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2413,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1800877238.259834</v>
+        <v>1238289752.980568</v>
       </c>
       <c r="F56" t="n">
-        <v>0.124521388274103</v>
+        <v>0.1521542695851608</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04458757441264739</v>
+        <v>0.04674902006798055</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2448,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2858015785.767257</v>
+        <v>3813714645.359846</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1146521865657634</v>
+        <v>0.1541280654789411</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01945866724209866</v>
+        <v>0.02078490756185344</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>5</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1427434128.883789</v>
+        <v>1863474779.177597</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1232737645857172</v>
+        <v>0.1950908600006162</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03053549551641596</v>
+        <v>0.02997429476997668</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5085969093.021769</v>
+        <v>5125183755.482024</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09004141537092314</v>
+        <v>0.1025910272290748</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03427028545554774</v>
+        <v>0.04084909782574017</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2864881212.174059</v>
+        <v>2353593130.361423</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1423328577003572</v>
+        <v>0.1657683998454614</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02754986818083113</v>
+        <v>0.02213100798176366</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2594,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3236224938.033572</v>
+        <v>2841619080.01345</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1113058153778744</v>
+        <v>0.1750838792504968</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03242923321625658</v>
+        <v>0.02601577893377716</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1831854141.677048</v>
+        <v>1644374518.262329</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1358518761363964</v>
+        <v>0.1308449873628567</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03767284459385797</v>
+        <v>0.03946093473619679</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5294650466.76853</v>
+        <v>4061563212.150821</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0650598106564849</v>
+        <v>0.06752292610998484</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03649384503419845</v>
+        <v>0.03999058228948797</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4397799890.320276</v>
+        <v>3694638564.63964</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1611645666475404</v>
+        <v>0.152593739187883</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03131714198234353</v>
+        <v>0.03160972712010982</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5133747637.370986</v>
+        <v>3809222935.460446</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1420874523949844</v>
+        <v>0.1214622329110625</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0240364920586976</v>
+        <v>0.03045019339728445</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.7060068645582</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4334263919.504176</v>
+        <v>5572726269.127831</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1131685457393866</v>
+        <v>0.1589991263516173</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03770928825789673</v>
+        <v>0.03542951860964991</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2913369769.177881</v>
+        <v>2820485247.511844</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07064359392972321</v>
+        <v>0.09728216184378762</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03573030815657579</v>
+        <v>0.03187485408229118</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3770781442.816798</v>
+        <v>3904795348.051683</v>
       </c>
       <c r="F68" t="n">
-        <v>0.148678221483791</v>
+        <v>0.1488237660321959</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04439782041780559</v>
+        <v>0.04487915485129299</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2068100640.496789</v>
+        <v>2306369379.794443</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1370721719830553</v>
+        <v>0.1601949627255148</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04989292705343679</v>
+        <v>0.04640230433032494</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3612187600.664093</v>
+        <v>2737111701.422204</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08845183011365167</v>
+        <v>0.09622072824565796</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03900684558414744</v>
+        <v>0.03134116935945962</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5051692555.418796</v>
+        <v>5574222774.311992</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1416219967711558</v>
+        <v>0.1423013690930744</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02776133730086347</v>
+        <v>0.02731498849720343</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.6955846172362</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1707267510.613335</v>
+        <v>1700088606.909728</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08328955490383037</v>
+        <v>0.07917396136770398</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0497552762771024</v>
+        <v>0.04998939864075731</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2246714319.882449</v>
+        <v>2501977171.237295</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08947761534876025</v>
+        <v>0.09197321688129258</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03510542507880651</v>
+        <v>0.05053309761612401</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3053,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2931987461.146575</v>
+        <v>2481399962.041326</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1428937025286967</v>
+        <v>0.1709979998021514</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02741801813005823</v>
+        <v>0.03005874060726063</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2427555282.840671</v>
+        <v>2319030145.234807</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1585351947153479</v>
+        <v>0.1019303780966616</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02713120004011785</v>
+        <v>0.03066410920745625</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4125935857.0473</v>
+        <v>3447429023.374724</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08938864922034878</v>
+        <v>0.1160282396704033</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02710797187377696</v>
+        <v>0.02842612857986495</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1472247536.625723</v>
+        <v>1603464784.461495</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1217040687149248</v>
+        <v>0.1551521379648153</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02986278380460922</v>
+        <v>0.0226428712568823</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3362756780.948303</v>
+        <v>3983889321.907764</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08270563272138798</v>
+        <v>0.1309383176579165</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05576528212507364</v>
+        <v>0.05304444808922821</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>214.0052612746515</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1716912503.01589</v>
+        <v>1740398705.764277</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1093802927249251</v>
+        <v>0.1545625431337719</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03588709939300835</v>
+        <v>0.0373964986845578</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4198818714.574461</v>
+        <v>3908136155.001967</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09068937291223605</v>
+        <v>0.06808627451494348</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03225733208328493</v>
+        <v>0.03788521462096894</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.8399101893735</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3302,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4522520559.033164</v>
+        <v>3445935515.282279</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08708151868679356</v>
+        <v>0.1144280116022457</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02380758641793685</v>
+        <v>0.02106715688745681</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>140.0025265593508</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3474612398.337666</v>
+        <v>3669608212.032546</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1829167512050973</v>
+        <v>0.2013300805264151</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02194337096883758</v>
+        <v>0.01809339010101921</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2319272540.448627</v>
+        <v>2262682744.326469</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1310983398538471</v>
+        <v>0.1084008560118976</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03762319076127193</v>
+        <v>0.04347192976746521</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2485000611.604333</v>
+        <v>2435135080.235097</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1092681760136916</v>
+        <v>0.09351866770761195</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03333810798139748</v>
+        <v>0.03200489559697518</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3438,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2695487200.534023</v>
+        <v>3251374788.569287</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1747615372476632</v>
+        <v>0.1794474397137985</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04793712517870585</v>
+        <v>0.05252681431055733</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>164.5751269653496</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1831402439.38954</v>
+        <v>2567949212.026876</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1276542283712748</v>
+        <v>0.1283645455174075</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02366861151336469</v>
+        <v>0.02498255823820061</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1186189249.410184</v>
+        <v>1354216378.036901</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1847146821898646</v>
+        <v>0.1315520368160828</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0302482337177655</v>
+        <v>0.0284718334017236</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3031990112.107228</v>
+        <v>2425408366.6929</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1309156443010635</v>
+        <v>0.1141647582500876</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0330204697289411</v>
+        <v>0.03134919661278112</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2557461979.311352</v>
+        <v>2335194561.94233</v>
       </c>
       <c r="F89" t="n">
-        <v>0.153788887326962</v>
+        <v>0.1045859411941689</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03957552810571018</v>
+        <v>0.03284968607022171</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1346686848.509788</v>
+        <v>1653208476.293455</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1290173417762416</v>
+        <v>0.1245822415673277</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05269292121995926</v>
+        <v>0.03673584056182976</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1992760612.783835</v>
+        <v>1954786022.138233</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1290952596711829</v>
+        <v>0.1243672641203793</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04133166941395863</v>
+        <v>0.0404837521239571</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2793752289.526054</v>
+        <v>1920039325.961773</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08423407179719294</v>
+        <v>0.09412893645274253</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03710491211665945</v>
+        <v>0.03660507992139142</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3408563083.801009</v>
+        <v>3056988172.378856</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08695934622471038</v>
+        <v>0.1271730659861876</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04567876192145796</v>
+        <v>0.05070134275159146</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2460829622.52197</v>
+        <v>2482997572.789812</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119791442788407</v>
+        <v>0.1305024221765961</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0356750392351283</v>
+        <v>0.03767471377281419</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2733964381.18784</v>
+        <v>2288275347.536034</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08898050367784394</v>
+        <v>0.1251966090437982</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03404194710896268</v>
+        <v>0.05007186067855491</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1767669754.774436</v>
+        <v>1566709434.469393</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1020987297270869</v>
+        <v>0.1142726119820955</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03792208085190288</v>
+        <v>0.03204804160318887</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5175839200.470823</v>
+        <v>3521461974.173644</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1665769498624161</v>
+        <v>0.1328109340110373</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02776600198876334</v>
+        <v>0.02379449117593747</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2492111352.208251</v>
+        <v>3814867797.718231</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09592850535985674</v>
+        <v>0.1145206349903836</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02105501848480466</v>
+        <v>0.03257163052318265</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2116521142.861533</v>
+        <v>3242962819.308928</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1145828797837259</v>
+        <v>0.1464371754525749</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02639800297254721</v>
+        <v>0.03532739112175651</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3936216455.767257</v>
+        <v>4323691400.558209</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1655384071976037</v>
+        <v>0.172705756330417</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02302729132739615</v>
+        <v>0.02310764590656601</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2629645884.574352</v>
+        <v>2811409268.865107</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2043531121048457</v>
+        <v>0.1852385346069438</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0401549707511854</v>
+        <v>0.05488180839064501</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
